--- a/artfynd/A 59832-2023 artfynd.xlsx
+++ b/artfynd/A 59832-2023 artfynd.xlsx
@@ -3707,7 +3707,7 @@
         <v>130187808</v>
       </c>
       <c r="B29" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
